--- a/static/totalizacion.xlsx
+++ b/static/totalizacion.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -475,19 +475,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.5 ONZAS</t>
+          <t>3.5 Onzas</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>69314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -629,12 +629,12 @@
         <v>18</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>261756</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -769,19 +769,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Liquida Total Nectar</t>
+          <t>Liquida Total 140 Cc</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>1432182</v>
+        <v>75378</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -790,19 +790,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Liquida total Miel</t>
+          <t>Liquida Total Miel 140 Cc</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>301512</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -811,19 +811,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LÍQUIDA TOTAL 140 CC</t>
+          <t>Liquida Total Nectar</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1432182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -832,19 +832,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LÍQUIDA TOTAL MIEL 140 CC</t>
+          <t>Liquida Total Nectar 140 Cc</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>282000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -853,11 +853,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LÍQUIDA TOTAL NÉCTAR 140 CC</t>
+          <t>Liquida total Miel</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -874,11 +874,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Líquida Total 140 Cc</t>
+          <t>Nada Via Oral</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>557</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -895,19 +895,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Líquida Total Miel 140 CC</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>614</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>8657400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -916,19 +916,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Líquida Total Néctar 140 CC</t>
+          <t>Pequena Semiblanda</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>867141</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -937,19 +937,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NADA VÍA ORAL</t>
+          <t>Renal Dialisis</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>543</v>
+        <v>106</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1515058</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -958,19 +958,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nada Vía Oral</t>
+          <t>Renal PRE Dialisis</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>106491</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -979,19 +979,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Renal SIN Dialisis</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>614</v>
+        <v>52</v>
       </c>
       <c r="E26" t="n">
-        <v>8657400</v>
+        <v>733200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1000,19 +1000,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pequena Semiblanda</t>
+          <t>Semiblanda</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>57</v>
+        <v>290</v>
       </c>
       <c r="E27" t="n">
-        <v>867141</v>
+        <v>3532490</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1021,19 +1021,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Renal Dialisis</t>
+          <t>Semiblanda Pequena</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>1515058</v>
+        <v>60905</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1042,19 +1042,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Renal PRE Dialisis</t>
+          <t>Todo Pure</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>328887</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1063,95 +1063,95 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Renal SIN Dialisis</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>733200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Almuerzo</t>
+          <t>Cena</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Semiblanda</t>
+          <t>3.0 ONZAS LQ</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>3532490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Almuerzo</t>
+          <t>Cena</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Semiblanda Pequena</t>
+          <t>3.0 Onzas</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>60905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Almuerzo</t>
+          <t>Cena</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Todo Pure</t>
+          <t>3.5 Onzas</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>328887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Almuerzo</t>
+          <t>Cena</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Alta en Fibra</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1168,19 +1168,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3.0 ONZAS</t>
+          <t>Astringente</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>450802</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1189,19 +1189,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3.0 ONZAS LQ</t>
+          <t>Blanda</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2453400</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1210,19 +1210,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3.5 ONZAS</t>
+          <t>Coronaria</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2615619</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1231,19 +1231,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Alta en Fibra</t>
+          <t>Hepatica</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>30426</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1252,19 +1252,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Astringente</t>
+          <t>Hipercalorica</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>450802</v>
+        <v>186260</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1273,19 +1273,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Blanda</t>
+          <t>Hiperproteica</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="E40" t="n">
-        <v>2453400</v>
+        <v>372520</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1294,19 +1294,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Coronaria</t>
+          <t>Hipo Grasa</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="E41" t="n">
-        <v>2615619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1315,19 +1315,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Hepatica</t>
+          <t>Hipoglucida</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>359</v>
       </c>
       <c r="E42" t="n">
-        <v>30426</v>
+        <v>5202269</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1336,19 +1336,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hipercalorica</t>
+          <t>Hipograsa</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1425116</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1357,19 +1357,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Hiperproteica</t>
+          <t>Hiposodica</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>5089700</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1378,19 +1378,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hipo Grasa</t>
+          <t>Liquida Clara</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>715845</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1399,19 +1399,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hipoglucida</t>
+          <t>Liquida Total</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>359</v>
+        <v>60</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>712980</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1420,11 +1420,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hipograsa</t>
+          <t>Liquida Total 140 Cc</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1441,11 +1441,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hiposodica</t>
+          <t>Liquida Total Miel 140 Cc</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1462,11 +1462,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Liquida Clara</t>
+          <t>Liquida Total Miel 3, 5 Onzas</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1483,19 +1483,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Liquida Total</t>
+          <t>Liquida Total Nectar</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1494997</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1504,11 +1504,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Liquida Total Nectar</t>
+          <t>Liquida Total Nectar 140 Cc</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1546,11 +1546,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LÍQUIDA TOTAL 140 CC</t>
+          <t>Nada Via Oral</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1567,19 +1567,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LÍQUIDA TOTAL MIEL 140 CC</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>30</v>
+        <v>613</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>8643300</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1588,19 +1588,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>LÍQUIDA TOTAL NÉCTAR 140 CC</t>
+          <t>Pequena Semiblanda</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>694317</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1609,19 +1609,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Líquida Total 140 Cc</t>
+          <t>Renal Dialisis</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1529351</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1630,19 +1630,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Líquida Total Miel 3, 5 Onzas</t>
+          <t>Renal PRE Dialisis</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>142930</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1651,19 +1651,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Líquida Total Néctar 140 CC</t>
+          <t>Renal SIN Dialisis</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>730224</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1672,19 +1672,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NADA VÍA ORAL</t>
+          <t>Semiblanda</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>4046700</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1693,19 +1693,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Semiblanda Pequena</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>73086</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1714,19 +1714,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Normal, Semiblanda, Liquida Total, Liquida Clara, Hipoglucida, Hipograsa, Dieta Renal</t>
+          <t>Todo Pure</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>417088</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1735,11 +1735,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Pequena Semiblanda</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -1747,154 +1747,154 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cena</t>
+          <t>Desayuno</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Renal Dialisis</t>
+          <t>3.0 Onzas</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cena</t>
+          <t>Desayuno</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Renal PRE Dialisis</t>
+          <t>3.5 Onzas</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cena</t>
+          <t>Desayuno</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Renal SIN Dialisis</t>
+          <t>Alta en Fibra</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>30219</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cena</t>
+          <t>Desayuno</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Semiblanda</t>
+          <t>Astringente</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>249139</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cena</t>
+          <t>Desayuno</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Semiblanda Pequena</t>
+          <t>Blanda</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1620320</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cena</t>
+          <t>Desayuno</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Todo Pure</t>
+          <t>Coronaria</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1776267</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cena</t>
+          <t>Desayuno</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Hepatica</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>30567</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1903,19 +1903,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3.0 ONZAS</t>
+          <t>Hipercalorica</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>99930</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1924,19 +1924,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3.5 ONZAS</t>
+          <t>Hiperproteica</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>219846</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1945,19 +1945,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Alta en Fibra</t>
+          <t>Hipo Grasa</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E72" t="n">
-        <v>30219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1966,19 +1966,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Astringente</t>
+          <t>Hipoglucida</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>29</v>
+        <v>381</v>
       </c>
       <c r="E73" t="n">
-        <v>249139</v>
+        <v>3307842</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1987,19 +1987,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Blanda</t>
+          <t>Hipograsa</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="E74" t="n">
-        <v>1620320</v>
+        <v>756008</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2008,19 +2008,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Coronaria</t>
+          <t>Hiposodica</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>207</v>
+        <v>382</v>
       </c>
       <c r="E75" t="n">
-        <v>1776267</v>
+        <v>3281762</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2029,19 +2029,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Hepatica</t>
+          <t>Liquida Clara</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="E76" t="n">
-        <v>30567</v>
+        <v>628910</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2050,19 +2050,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Hipercalorica</t>
+          <t>Liquida Total</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E77" t="n">
-        <v>99930</v>
+        <v>759570</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2071,19 +2071,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Hiperproteica</t>
+          <t>Liquida Total 140 Cc</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>219846</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2092,19 +2092,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Hipo Grasa</t>
+          <t>Liquida Total Miel 140 Cc</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>303828</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2113,19 +2113,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Hipoglucida</t>
+          <t>Liquida Total Nectar</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>381</v>
+        <v>112</v>
       </c>
       <c r="E80" t="n">
-        <v>3307842</v>
+        <v>1215312</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2134,19 +2134,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Hipograsa</t>
+          <t>Liquida Total Nectar 140 Cc</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="E81" t="n">
-        <v>756008</v>
+        <v>227871</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2155,19 +2155,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Hiposodica</t>
+          <t>Liquida total Miel</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>382</v>
+        <v>29</v>
       </c>
       <c r="E82" t="n">
-        <v>3281762</v>
+        <v>314679</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2176,19 +2176,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Liquida Clara</t>
+          <t>Nada Via Oral</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>61</v>
+        <v>413</v>
       </c>
       <c r="E83" t="n">
-        <v>628910</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2197,19 +2197,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Liquida Total</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>70</v>
+        <v>647</v>
       </c>
       <c r="E84" t="n">
-        <v>759570</v>
+        <v>5113888</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2218,19 +2218,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Liquida Total Nectar</t>
+          <t>Pequena Semiblanda</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="E85" t="n">
-        <v>1215312</v>
+        <v>378924</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2239,19 +2239,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Liquida total Miel</t>
+          <t>Renal Dialisis</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="E86" t="n">
-        <v>314679</v>
+        <v>909586</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2260,19 +2260,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>LÍQUIDA TOTAL 140 CC</t>
+          <t>Renal PRE Dialisis</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>120134</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2281,19 +2281,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>LÍQUIDA TOTAL MIEL 140 CC</t>
+          <t>Renal SIN Dialisis</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>403307</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2302,19 +2302,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>LÍQUIDA TOTAL NÉCTAR 140 CC</t>
+          <t>Semiblanda</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>2363296</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2323,19 +2323,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Líquida Total 140 Cc</t>
+          <t>Semiblanda Pequena</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>80157</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2344,19 +2344,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Líquida Total Miel 140 CC</t>
+          <t>Todo Pure</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>325024</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2365,11 +2365,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Líquida Total Néctar 140 CC</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -2377,233 +2377,44 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45776</v>
+        <v>45780</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Desayuno</t>
+          <t>Refrigerio Nocturno</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>NADA VÍA ORAL</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45776</v>
+        <v>45781</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Desayuno</t>
+          <t>Nueves</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Liquida Total Miel 140 Cc, Semiblanda Pequeña, Renal SIN Dialisis</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>646</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>5105984</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>45776</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Pequena Semiblanda</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>52</v>
-      </c>
-      <c r="E95" t="n">
-        <v>378924</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>45776</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Renal Dialisis</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>106</v>
-      </c>
-      <c r="E96" t="n">
-        <v>909586</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>45776</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Renal PRE Dialisis</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>14</v>
-      </c>
-      <c r="E97" t="n">
-        <v>120134</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>45776</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Renal SIN Dialisis</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>47</v>
-      </c>
-      <c r="E98" t="n">
-        <v>403307</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>45776</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Semiblanda</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>299</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2363296</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>45776</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Semiblanda Pequena</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>11</v>
-      </c>
-      <c r="E100" t="n">
-        <v>80157</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>45776</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Todo Pure</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>28</v>
-      </c>
-      <c r="E101" t="n">
-        <v>325024</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>45776</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>100</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>45777</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Normal, Semiblanda</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>1</v>
-      </c>
-      <c r="E103" t="n">
-        <v>7904</v>
+        <v>4913</v>
       </c>
     </row>
   </sheetData>

--- a/static/totalizacion.xlsx
+++ b/static/totalizacion.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -475,14 +475,455 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal, Semiblanda, Liquida Total</t>
+          <t>Astringente</t>
         </is>
       </c>
       <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25773</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Blanda</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E3" t="n">
+        <v>150176</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Coronaria</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>128715</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hepatica</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>10851</v>
+      <c r="E5" t="n">
+        <v>10189</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hipercalorica</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9993</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Hiperproteica</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19986</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hipo Grasa</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hipoglucida</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>104184</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hiposodica</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>240548</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Liquida Clara</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>41240</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Liquida Total</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>75957</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Liquida Total 140 Cc</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10725</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Liquida Total Miel 140 Cc</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>21702</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Liquida Total Nectar</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97659</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Liquida Total Nectar 140 Cc</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>21702</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Liquida total Miel</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>32553</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>57</v>
+      </c>
+      <c r="E18" t="n">
+        <v>450528</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Renal Dialisis</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>34324</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Renal PRE Dialisis</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>42905</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Semiblanda</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>28</v>
+      </c>
+      <c r="E21" t="n">
+        <v>221312</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Semiblanda Pequena</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>29148</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Desayuno</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Todo Pure</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23216</v>
       </c>
     </row>
   </sheetData>

--- a/static/totalizacion.xlsx
+++ b/static/totalizacion.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45792</v>
+        <v>45822</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -475,455 +475,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Astringente</t>
+          <t>Blanda</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>25773</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Blanda</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E3" t="n">
         <v>150176</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Coronaria</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>15</v>
-      </c>
-      <c r="E4" t="n">
-        <v>128715</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Hepatica</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10189</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Hipercalorica</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9993</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Hiperproteica</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>19986</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Hipo Grasa</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Hipoglucida</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>12</v>
-      </c>
-      <c r="E9" t="n">
-        <v>104184</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Hiposodica</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>28</v>
-      </c>
-      <c r="E10" t="n">
-        <v>240548</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Liquida Clara</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>41240</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Liquida Total</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>75957</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Liquida Total 140 Cc</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10725</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Liquida Total Miel 140 Cc</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>21702</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Liquida Total Nectar</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>97659</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Liquida Total Nectar 140 Cc</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>21702</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Liquida total Miel</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>32553</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>57</v>
-      </c>
-      <c r="E18" t="n">
-        <v>450528</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Renal Dialisis</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>34324</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Renal PRE Dialisis</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>42905</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Semiblanda</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>28</v>
-      </c>
-      <c r="E21" t="n">
-        <v>221312</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Semiblanda Pequena</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" t="n">
-        <v>29148</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Todo Pure</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="n">
-        <v>23216</v>
       </c>
     </row>
   </sheetData>

--- a/static/totalizacion.xlsx
+++ b/static/totalizacion.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,27 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45822</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Desayuno</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Blanda</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E2" t="n">
-        <v>150176</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/totalizacion.xlsx
+++ b/static/totalizacion.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +464,27 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45829</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cena</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Liquida total Miel</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E2" t="n">
+        <v>326638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
